--- a/requirement/src/main/resources/templates/BizFinReview.xlsx
+++ b/requirement/src/main/resources/templates/BizFinReview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -527,11 +527,14 @@
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE10" sqref="AE10"/>
+      <pane xSplit="3" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="32" max="32" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18">
       <c r="A1" s="1" t="s">
@@ -641,10 +644,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Bizfin Quantity Recommendation should be number" sqref="AH1:AH1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter number" sqref="AF1:AF1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
